--- a/Code/R/RWithSQLServer/Example Data/ImportedData/AwardingGroup4.xlsx
+++ b/Code/R/RWithSQLServer/Example Data/ImportedData/AwardingGroup4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ScholarshipName</t>
   </si>
@@ -31,21 +31,6 @@
   </si>
   <si>
     <t>ApplicantRanking</t>
-  </si>
-  <si>
-    <t>12000</t>
-  </si>
-  <si>
-    <t>4500</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>1000</t>
   </si>
 </sst>
 </file>
@@ -365,7 +350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -387,162 +374,162 @@
       <c r="A2">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>12000</v>
       </c>
       <c r="C2">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B3">
+        <v>12000</v>
       </c>
       <c r="C3">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D3">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="B4">
+        <v>12000</v>
       </c>
       <c r="C4">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B5">
+        <v>12000</v>
       </c>
       <c r="C5">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
+      <c r="B6">
+        <v>12000</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
+      <c r="B7">
+        <v>12000</v>
       </c>
       <c r="C7">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
+      <c r="B8">
+        <v>12000</v>
       </c>
       <c r="C8">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
+      <c r="B9">
+        <v>12000</v>
       </c>
       <c r="C9">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
+      <c r="B10">
+        <v>12000</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
+      <c r="B11">
+        <v>12000</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
+      <c r="B12">
+        <v>12000</v>
       </c>
       <c r="C12">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D12">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
+      <c r="B13">
+        <v>12000</v>
       </c>
       <c r="C13">
         <v>85</v>
@@ -555,218 +542,218 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
+      <c r="B14">
+        <v>12000</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="D14">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
+      <c r="B15">
+        <v>12000</v>
       </c>
       <c r="C15">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
+      <c r="B16">
+        <v>12000</v>
       </c>
       <c r="C16">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D16">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
-      <c r="B17" t="s">
-        <v>4</v>
+      <c r="B17">
+        <v>12000</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
+      <c r="B18">
+        <v>12000</v>
       </c>
       <c r="C18">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
+      <c r="B19">
+        <v>12000</v>
       </c>
       <c r="C19">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
+      <c r="B20">
+        <v>12000</v>
       </c>
       <c r="C20">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
-        <v>4</v>
+      <c r="B21">
+        <v>12000</v>
       </c>
       <c r="C21">
+        <v>80</v>
+      </c>
+      <c r="D21">
         <v>82</v>
-      </c>
-      <c r="D21">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
+      <c r="B22">
+        <v>12000</v>
       </c>
       <c r="C22">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
-        <v>4</v>
+      <c r="B23">
+        <v>12000</v>
       </c>
       <c r="C23">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
-      <c r="B24" t="s">
-        <v>4</v>
+      <c r="B24">
+        <v>12000</v>
       </c>
       <c r="C24">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
+      <c r="B25">
+        <v>4500</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
+      <c r="B26">
+        <v>4500</v>
       </c>
       <c r="C26">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D26">
-        <v>73</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
+      <c r="B27">
+        <v>4500</v>
       </c>
       <c r="C27">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D27">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
+      <c r="B28">
+        <v>4500</v>
       </c>
       <c r="C28">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
+      <c r="B29">
+        <v>4500</v>
       </c>
       <c r="C29">
         <v>42</v>
@@ -779,134 +766,134 @@
       <c r="A30">
         <v>7</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
+      <c r="B30">
+        <v>4500</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D30">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
+      <c r="B31">
+        <v>4500</v>
       </c>
       <c r="C31">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
+      <c r="B32">
+        <v>4500</v>
       </c>
       <c r="C32">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
+      <c r="B33">
+        <v>4500</v>
       </c>
       <c r="C33">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>4000</v>
+      </c>
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34">
         <v>6</v>
-      </c>
-      <c r="C34">
-        <v>16</v>
-      </c>
-      <c r="D34">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
+      <c r="B35">
+        <v>4000</v>
       </c>
       <c r="C35">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
+      <c r="B36">
+        <v>4000</v>
       </c>
       <c r="C36">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
+      <c r="B37">
+        <v>4000</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="D37">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
+      <c r="B38">
+        <v>4000</v>
       </c>
       <c r="C38">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D38">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
-      <c r="B39" t="s">
-        <v>6</v>
+      <c r="B39">
+        <v>4000</v>
       </c>
       <c r="C39">
         <v>33</v>
@@ -919,266 +906,266 @@
       <c r="A40">
         <v>8</v>
       </c>
-      <c r="B40" t="s">
-        <v>6</v>
+      <c r="B40">
+        <v>4000</v>
       </c>
       <c r="C40">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D40">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
-      <c r="B41" t="s">
-        <v>6</v>
+      <c r="B41">
+        <v>4000</v>
       </c>
       <c r="C41">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D41">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
-      <c r="B42" t="s">
-        <v>6</v>
+      <c r="B42">
+        <v>4000</v>
       </c>
       <c r="C42">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8</v>
       </c>
-      <c r="B43" t="s">
-        <v>6</v>
+      <c r="B43">
+        <v>4000</v>
       </c>
       <c r="C43">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D43">
-        <v>21</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
-      <c r="B44" t="s">
-        <v>6</v>
+      <c r="B44">
+        <v>4000</v>
       </c>
       <c r="C44">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>13</v>
       </c>
-      <c r="B45" t="s">
-        <v>6</v>
+      <c r="B45">
+        <v>4000</v>
       </c>
       <c r="C45">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D45">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>13</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
+      <c r="B46">
+        <v>4000</v>
       </c>
       <c r="C46">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D46">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>13</v>
       </c>
-      <c r="B47" t="s">
-        <v>6</v>
+      <c r="B47">
+        <v>4000</v>
       </c>
       <c r="C47">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="D47">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>13</v>
       </c>
-      <c r="B48" t="s">
-        <v>6</v>
+      <c r="B48">
+        <v>4000</v>
       </c>
       <c r="C48">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D48">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>9</v>
       </c>
-      <c r="B49" t="s">
-        <v>7</v>
+      <c r="B49">
+        <v>1500</v>
       </c>
       <c r="C49">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D49">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>9</v>
       </c>
-      <c r="B50" t="s">
-        <v>7</v>
+      <c r="B50">
+        <v>1500</v>
       </c>
       <c r="C50">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D50">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
-      <c r="B51" t="s">
-        <v>8</v>
+      <c r="B51">
+        <v>1000</v>
       </c>
       <c r="C51">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D51">
-        <v>99</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
-      <c r="B52" t="s">
-        <v>8</v>
+      <c r="B52">
+        <v>1000</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D52">
-        <v>98</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
-      <c r="B53" t="s">
-        <v>8</v>
+      <c r="B53">
+        <v>1000</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D53">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
-      <c r="B54" t="s">
-        <v>8</v>
+      <c r="B54">
+        <v>1000</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D54">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
-      <c r="B55" t="s">
-        <v>8</v>
+      <c r="B55">
+        <v>1000</v>
       </c>
       <c r="C55">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D55">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>6</v>
       </c>
-      <c r="B56" t="s">
-        <v>8</v>
+      <c r="B56">
+        <v>1000</v>
       </c>
       <c r="C56">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6</v>
       </c>
-      <c r="B57" t="s">
-        <v>8</v>
+      <c r="B57">
+        <v>1000</v>
       </c>
       <c r="C57">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D57">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
-      <c r="B58" t="s">
-        <v>8</v>
+      <c r="B58">
+        <v>1000</v>
       </c>
       <c r="C58">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D58">
-        <v>48</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
